--- a/Pruebas.xlsx
+++ b/Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Laboratorio\Parcial_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE043EFA-25D7-4B72-827B-2721798B1EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8686B5-E61E-462F-90F5-3960E3445F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{DFFA9CD4-7198-456F-97C0-2963738640BD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>altura</t>
   </si>
@@ -81,11 +81,26 @@
   <si>
     <t>Velocidad en (Y)</t>
   </si>
+  <si>
+    <t>Velocidad en (X)</t>
+  </si>
+  <si>
+    <t>Ataque</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,9 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +597,7 @@
         <v>112.94543478260871</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I3:I66" si="4">$H$4/TAN(A13)</f>
+        <f t="shared" ref="I4:I52" si="4">$H$4/TAN(A13)</f>
         <v>607.57812044278944</v>
       </c>
       <c r="K4">
@@ -2375,7 +2391,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA17EB3E-C30A-4B0E-82DD-28D64D829D6D}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -2389,7 +2405,7 @@
     <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2403,33 +2419,79 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>15.4764</v>
-      </c>
-      <c r="B2">
-        <v>57.530799999999999</v>
+        <v>32.616700000000002</v>
+      </c>
+      <c r="B2" s="2">
+        <v>74.801400000000001</v>
       </c>
       <c r="C2">
-        <v>2.4079999999999999</v>
+        <v>5.702</v>
       </c>
       <c r="E2">
         <f xml:space="preserve"> (E4*C2)+((-9.81)*C2^2/2)</f>
-        <v>3.0001068721464392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.000064038126936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4">
         <f>SIN(B2*PI()/180)*A2</f>
-        <v>13.057131558200348</v>
+        <v>31.47586244442774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>COS(B2*PI()/180)*A2</f>
+        <v>8.5509766851198634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>E7*C2</f>
+        <v>48.757669058553461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <f>D14*F14</f>
+        <v>1.25</v>
+      </c>
+      <c r="F14">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pruebas.xlsx
+++ b/Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Laboratorio\Parcial_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8686B5-E61E-462F-90F5-3960E3445F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F86C12-6BAA-44DC-A278-8BF444B38357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{DFFA9CD4-7198-456F-97C0-2963738640BD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>altura</t>
   </si>
@@ -93,6 +93,9 @@
   <si>
     <t>Rango</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -143,10 +146,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2391,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA17EB3E-C30A-4B0E-82DD-28D64D829D6D}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,9 +2409,10 @@
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2419,55 +2426,90 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>32.616700000000002</v>
+        <v>204.12899999999999</v>
       </c>
       <c r="B2" s="2">
-        <v>74.801400000000001</v>
+        <v>40.289200000000001</v>
       </c>
       <c r="C2">
-        <v>5.702</v>
+        <v>24.405000000000001</v>
       </c>
       <c r="E2">
         <f xml:space="preserve"> (E4*C2)+((-9.81)*C2^2/2)</f>
-        <v>20.000064038126936</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>300.00280791563091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <f>SIN(B2*PI()/180)*A2</f>
+        <v>131.99920305431803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4">
         <f>SIN(B2*PI()/180)*A2</f>
-        <v>31.47586244442774</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131.99920305431803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>G6*C2</f>
+        <v>3800.0441610885064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>D14/G6</f>
+        <v>25.689175141595506</v>
+      </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <f>COS(B2*PI()/180)*A2</f>
+        <v>155.70760750208999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7">
         <f>COS(B2*PI()/180)*A2</f>
-        <v>8.5509766851198634</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>155.70760750208999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f xml:space="preserve"> (E4*C6)+((-9.81)*C6^2/2)</f>
+        <v>153.97575188384053</v>
+      </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <f>G6*C6</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10">
         <f>E7*C2</f>
-        <v>48.757669058553461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3800.0441610885064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>20</v>
       </c>
@@ -2478,16 +2520,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14">
-        <v>50</v>
+        <v>4000</v>
       </c>
       <c r="E14">
         <f>D14*F14</f>
-        <v>1.25</v>
+        <v>200</v>
       </c>
       <c r="F14">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas.xlsx
+++ b/Pruebas.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Laboratorio\Parcial_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F86C12-6BAA-44DC-A278-8BF444B38357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97464899-50D3-4E64-A1B0-9E7DCED81BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{DFFA9CD4-7198-456F-97C0-2963738640BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Disparo" sheetId="1" r:id="rId1"/>
+    <sheet name="Mayor" sheetId="2" r:id="rId2"/>
+    <sheet name="Menor" sheetId="3" r:id="rId3"/>
+    <sheet name="Colateral" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>altura</t>
   </si>
@@ -96,6 +98,12 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>Tiempo DOS</t>
+  </si>
+  <si>
+    <t>ALTURA DOS</t>
+  </si>
 </sst>
 </file>
 
@@ -146,13 +154,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2397,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA17EB3E-C30A-4B0E-82DD-28D64D829D6D}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,9 +2420,10 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2425,23 +2436,39 @@
       <c r="E1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>204.12899999999999</v>
+        <v>15.216653409999999</v>
       </c>
       <c r="B2" s="2">
-        <v>40.289200000000001</v>
+        <v>41.530766</v>
       </c>
       <c r="C2">
-        <v>24.405000000000001</v>
+        <v>1.6439999999999999</v>
       </c>
       <c r="E2">
         <f xml:space="preserve"> (E4*C2)+((-9.81)*C2^2/2)</f>
-        <v>300.00280791563091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.3293593764826745</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> (E4*C6)+((-9.81)*C6^2/2)</f>
+        <v>3.2577662386315556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -2450,25 +2477,24 @@
       </c>
       <c r="G3">
         <f>SIN(B2*PI()/180)*A2</f>
-        <v>131.99920305431803</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10.088977771583137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E4">
         <f>SIN(B2*PI()/180)*A2</f>
-        <v>131.99920305431803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>G6*C2</f>
-        <v>3800.0441610885064</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10.088977771583137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6">
-        <f>D14/G6</f>
-        <v>25.689175141595506</v>
+        <f>D14/G6-0.1</f>
+        <v>1.6557437698206905</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -2478,20 +2504,16 @@
       </c>
       <c r="G6">
         <f>COS(B2*PI()/180)*A2</f>
-        <v>155.70760750208999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11.391183806987137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7">
         <f>COS(B2*PI()/180)*A2</f>
-        <v>155.70760750208999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <f xml:space="preserve"> (E4*C6)+((-9.81)*C6^2/2)</f>
-        <v>153.97575188384053</v>
-      </c>
+        <v>11.391183806987137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>10</v>
       </c>
@@ -2500,16 +2522,16 @@
       </c>
       <c r="G9">
         <f>G6*C6</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18.860881619301285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10">
         <f>E7*C2</f>
-        <v>3800.0441610885064</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18.727106178686853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>20</v>
       </c>
@@ -2520,13 +2542,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <f>D14*F14</f>
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0.05</v>
@@ -2536,4 +2558,257 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569C652B-DD00-4E35-B1AF-7D0F8E1231A7}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>12.964162</v>
+      </c>
+      <c r="B2" s="2">
+        <v>50.469234</v>
+      </c>
+      <c r="C2">
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="E2">
+        <f xml:space="preserve"> (E4*C2)+((-9.81)*C2^2/2)</f>
+        <v>-2.9999999152913155</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> (E4*C8)+((-9.81)*C8^2/2)</f>
+        <v>-4.2551119117617873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <f>SIN(B2*PI()/180)*A2</f>
+        <v>9.9990367034325889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f>SIN(B2*PI()/180)*A2</f>
+        <v>9.9990367034325889</v>
+      </c>
+      <c r="I4">
+        <f>E7*C6</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>D14/G6</f>
+        <v>2.4237748723636532</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <f>COS(B2*PI()/180)*A2</f>
+        <v>8.2515914444216101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>COS(B2*PI()/180)*A2</f>
+        <v>8.2515914444216101</v>
+      </c>
+      <c r="I7">
+        <f>3+I2</f>
+        <v>-1.2551119117617873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9">
+        <f>G6*C6</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>E7*C2</f>
+        <v>19.01166668794739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <f>D14*F14</f>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D2FBED-5115-4F55-A0BF-035E170D644A}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>256.16846750000002</v>
+      </c>
+      <c r="B2" s="2">
+        <v>61.469234</v>
+      </c>
+      <c r="C2">
+        <v>0.06</v>
+      </c>
+      <c r="E2">
+        <f xml:space="preserve"> (E4*C2)+((-9.81)*C2^2/2)</f>
+        <v>13.485915917181135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f>SIN(B2*PI()/180)*A2</f>
+        <v>225.05956528635227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>COS(B2*PI()/180)*A2</f>
+        <v>122.35389578765653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>E7*C2</f>
+        <v>7.3412337472593912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Pruebas.xlsx
+++ b/Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Laboratorio\Parcial_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97464899-50D3-4E64-A1B0-9E7DCED81BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB265B3B-2474-40A3-B5E7-A0452AA674A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{DFFA9CD4-7198-456F-97C0-2963738640BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{DFFA9CD4-7198-456F-97C0-2963738640BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Disparo" sheetId="1" r:id="rId1"/>
@@ -2409,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA17EB3E-C30A-4B0E-82DD-28D64D829D6D}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2442,17 +2442,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>15.216653409999999</v>
+        <v>24.579143070000001</v>
       </c>
       <c r="B2" s="2">
-        <v>41.530766</v>
+        <v>70.289152999999999</v>
       </c>
       <c r="C2">
-        <v>1.6439999999999999</v>
+        <v>4.5839999999999996</v>
       </c>
       <c r="E2">
         <f xml:space="preserve"> (E4*C2)+((-9.81)*C2^2/2)</f>
-        <v>3.3293593764826745</v>
+        <v>2.9999998244216783</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>22</v>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="I2">
         <f xml:space="preserve"> (E4*C6)+((-9.81)*C6^2/2)</f>
-        <v>3.2577662386315556</v>
+        <v>-0.17909808746520639</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2477,13 +2477,13 @@
       </c>
       <c r="G3">
         <f>SIN(B2*PI()/180)*A2</f>
-        <v>10.088977771583137</v>
+        <v>23.138970223477678</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E4">
         <f>SIN(B2*PI()/180)*A2</f>
-        <v>10.088977771583137</v>
+        <v>23.138970223477678</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2494,7 +2494,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6">
         <f>D14/G6-0.1</f>
-        <v>1.6557437698206905</v>
+        <v>4.7251525701776922</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -2504,13 +2504,13 @@
       </c>
       <c r="G6">
         <f>COS(B2*PI()/180)*A2</f>
-        <v>11.391183806987137</v>
+        <v>8.2898933076694306</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7">
         <f>COS(B2*PI()/180)*A2</f>
-        <v>11.391183806987137</v>
+        <v>8.2898933076694306</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2522,13 +2522,13 @@
       </c>
       <c r="G9">
         <f>G6*C6</f>
-        <v>18.860881619301285</v>
+        <v>39.171010669233063</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10">
         <f>E7*C2</f>
-        <v>18.727106178686853</v>
+        <v>38.000870922356668</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2544,14 +2544,14 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <f>D14*F14</f>
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2734,7 +2734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D2FBED-5115-4F55-A0BF-035E170D644A}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2762,17 +2762,17 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>256.16846750000002</v>
+        <v>11.083338790000001</v>
       </c>
       <c r="B2" s="2">
-        <v>61.469234</v>
+        <v>70.710847000000001</v>
       </c>
       <c r="C2">
-        <v>0.06</v>
+        <v>1.534</v>
       </c>
       <c r="E2">
         <f xml:space="preserve"> (E4*C2)+((-9.81)*C2^2/2)</f>
-        <v>13.485915917181135</v>
+        <v>4.5051877439506374</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2783,7 +2783,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4">
         <f>SIN(B2*PI()/180)*A2</f>
-        <v>225.05956528635227</v>
+        <v>10.46115901170185</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2794,7 +2794,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7">
         <f>COS(B2*PI()/180)*A2</f>
-        <v>122.35389578765653</v>
+        <v>3.6612225916772441</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2805,7 +2805,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10">
         <f>E7*C2</f>
-        <v>7.3412337472593912</v>
+        <v>5.6163154556328925</v>
       </c>
     </row>
   </sheetData>
